--- a/BOM Skeleton3D/BOM_English.xlsx
+++ b/BOM Skeleton3D/BOM_English.xlsx
@@ -33,9 +33,6 @@
     <t>N°</t>
   </si>
   <si>
-    <t>M8 Threaded Rod - 230mm</t>
-  </si>
-  <si>
     <t>M5 Threaded Rod - 160mm</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>LM8UU</t>
   </si>
   <si>
-    <t>Ø8 Smooth Rod - 210mm</t>
-  </si>
-  <si>
     <t>M8 Threaded Rod - 190mm</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Page 3</t>
   </si>
   <si>
-    <t>Ø8 Smooth rods - 210mm</t>
-  </si>
-  <si>
     <t>Sous-ensemble 31 : Extrudeur</t>
   </si>
   <si>
@@ -244,6 +235,15 @@
   </si>
   <si>
     <t>Mobile party</t>
+  </si>
+  <si>
+    <t>M8 Threaded Rod - 240mm</t>
+  </si>
+  <si>
+    <t>Ø8 Smooth Rod - 220mm</t>
+  </si>
+  <si>
+    <t>Ø8 Smooth rods - 220mm</t>
   </si>
 </sst>
 </file>
@@ -365,6 +365,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,25 +408,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,8 +715,8 @@
   </sheetPr>
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,54 +731,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="H3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="O3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="H3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18"/>
+      <c r="O3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="18"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -787,30 +787,30 @@
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="O4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="O4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -819,11 +819,11 @@
       <c r="B5" s="2">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="1"/>
       <c r="H5" s="3" t="s">
         <v>3</v>
@@ -831,13 +831,13 @@
       <c r="I5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>3</v>
@@ -845,13 +845,13 @@
       <c r="P5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="Q5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
       <c r="T5" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -861,11 +861,11 @@
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="1"/>
       <c r="H6" s="2">
         <v>1</v>
@@ -873,13 +873,13 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="J6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
       <c r="M6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O6" s="2">
         <v>1</v>
@@ -887,11 +887,11 @@
       <c r="P6" s="2">
         <v>3</v>
       </c>
-      <c r="Q6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
+      <c r="Q6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -901,11 +901,11 @@
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="1"/>
       <c r="H7" s="2">
         <v>2</v>
@@ -913,11 +913,11 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="J7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="1"/>
       <c r="O7" s="2">
         <v>2</v>
@@ -925,13 +925,13 @@
       <c r="P7" s="2">
         <v>1</v>
       </c>
-      <c r="Q7" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
+      <c r="Q7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -941,11 +941,11 @@
       <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="1"/>
       <c r="H8" s="2">
         <v>3</v>
@@ -953,13 +953,13 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="J8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
       <c r="M8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" s="2">
         <v>3</v>
@@ -967,11 +967,11 @@
       <c r="P8" s="2">
         <v>1</v>
       </c>
-      <c r="Q8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
+      <c r="Q8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -981,11 +981,11 @@
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="1"/>
       <c r="H9" s="2">
         <v>4</v>
@@ -993,11 +993,11 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="J9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="1"/>
       <c r="O9" s="2">
         <v>4</v>
@@ -1005,13 +1005,13 @@
       <c r="P9" s="2">
         <v>1</v>
       </c>
-      <c r="Q9" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
+      <c r="Q9" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="13"/>
       <c r="T9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -1021,13 +1021,13 @@
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="2">
         <v>5</v>
@@ -1035,13 +1035,13 @@
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="J10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1051,13 +1051,13 @@
       <c r="B11" s="2">
         <v>1</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="C11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
       <c r="F11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2">
         <v>6</v>
@@ -1065,11 +1065,11 @@
       <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1079,13 +1079,13 @@
       <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="2">
         <v>7</v>
@@ -1093,11 +1093,11 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="J12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1107,13 +1107,13 @@
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="2">
         <v>8</v>
@@ -1121,11 +1121,11 @@
       <c r="I13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1135,13 +1135,13 @@
       <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="2">
         <v>9</v>
@@ -1149,11 +1149,11 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="J14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -1163,11 +1163,11 @@
       <c r="B15" s="2">
         <v>4</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="1"/>
       <c r="H15" s="2">
         <v>10</v>
@@ -1175,11 +1175,11 @@
       <c r="I15" s="2">
         <v>1</v>
       </c>
-      <c r="J15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="J15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -1189,11 +1189,11 @@
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="1"/>
       <c r="H16" s="2">
         <v>11</v>
@@ -1201,11 +1201,11 @@
       <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1215,13 +1215,13 @@
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="2">
         <v>12</v>
@@ -1229,11 +1229,11 @@
       <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="J17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1243,13 +1243,13 @@
       <c r="B18" s="2">
         <v>1</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="2">
         <v>13</v>
@@ -1257,11 +1257,11 @@
       <c r="I18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="J18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1271,11 +1271,11 @@
       <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1285,20 +1285,20 @@
       <c r="B20" s="2">
         <v>2</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
       <c r="F20" s="1"/>
-      <c r="H20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="H20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1307,11 +1307,11 @@
       <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="1"/>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1319,13 +1319,13 @@
       <c r="I21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="J21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1335,13 +1335,13 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="2">
         <v>1</v>
@@ -1349,11 +1349,11 @@
       <c r="I22" s="2">
         <v>2</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="J22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1363,11 +1363,11 @@
       <c r="B23" s="2">
         <v>55</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="1"/>
       <c r="H23" s="2">
         <v>2</v>
@@ -1375,11 +1375,11 @@
       <c r="I23" s="2">
         <v>3</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="J23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1389,13 +1389,13 @@
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
@@ -1403,11 +1403,11 @@
       <c r="I24" s="2">
         <v>1</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="J24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1417,11 +1417,11 @@
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="1"/>
       <c r="H25" s="2">
         <v>4</v>
@@ -1429,13 +1429,13 @@
       <c r="I25" s="2">
         <v>1</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="J25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
       <c r="M25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1445,11 +1445,11 @@
       <c r="B26" s="2">
         <v>3</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="1"/>
       <c r="H26" s="2">
         <v>5</v>
@@ -1457,11 +1457,11 @@
       <c r="I26" s="2">
         <v>1</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="J26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1471,11 +1471,11 @@
       <c r="B27" s="2">
         <v>22</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1485,11 +1485,11 @@
       <c r="B28" s="2">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1499,11 +1499,11 @@
       <c r="B29" s="2">
         <v>10</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1513,11 +1513,11 @@
       <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1527,11 +1527,11 @@
       <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1541,13 +1541,13 @@
       <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
       <c r="F32" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,11 +1557,11 @@
       <c r="B33" s="2">
         <v>2</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,13 +1571,13 @@
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1587,11 +1587,11 @@
       <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,11 +1601,11 @@
       <c r="B36" s="2">
         <v>3</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="C36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1615,13 +1615,13 @@
       <c r="B37" s="2">
         <v>1</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
       <c r="F37" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1631,11 +1631,11 @@
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="C38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
       <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1645,13 +1645,13 @@
       <c r="B39" s="2">
         <v>1</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
       <c r="F39" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1661,13 +1661,13 @@
       <c r="B40" s="2">
         <v>1</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
       <c r="F40" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1677,11 +1677,11 @@
       <c r="B41" s="2">
         <v>5</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,11 +1691,11 @@
       <c r="B42" s="2">
         <v>1</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
+      <c r="C42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1705,11 +1705,11 @@
       <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1719,11 +1719,11 @@
       <c r="B44" s="2">
         <v>11</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
+      <c r="C44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,11 +1733,11 @@
       <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1747,11 +1747,11 @@
       <c r="B46" s="2">
         <v>1</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="C46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1761,13 +1761,13 @@
       <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C47" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="C47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,11 +1777,11 @@
       <c r="B48" s="2">
         <v>2</v>
       </c>
-      <c r="C48" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="C48" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1791,11 +1791,11 @@
       <c r="B49" s="2">
         <v>2</v>
       </c>
-      <c r="C49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,13 +1805,13 @@
       <c r="B50" s="2">
         <v>1</v>
       </c>
-      <c r="C50" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
+      <c r="C50" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1821,13 +1821,13 @@
       <c r="B51" s="2">
         <v>1</v>
       </c>
-      <c r="C51" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,13 +1837,13 @@
       <c r="B52" s="2">
         <v>1</v>
       </c>
-      <c r="C52" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1853,13 +1853,13 @@
       <c r="B53" s="2">
         <v>1</v>
       </c>
-      <c r="C53" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="C53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1869,11 +1869,11 @@
       <c r="B54" s="2">
         <v>1</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="C54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,11 +1883,11 @@
       <c r="B55" s="2">
         <v>8</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1897,11 +1897,11 @@
       <c r="B56" s="2">
         <v>4</v>
       </c>
-      <c r="C56" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="C56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1911,87 +1911,17 @@
       <c r="B57" s="2">
         <v>2</v>
       </c>
-      <c r="C57" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
       <c r="F57" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="H20:M20"/>
     <mergeCell ref="H3:M3"/>
@@ -2008,6 +1938,76 @@
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
